--- a/bill of materials/BOM-rev5.xlsx
+++ b/bill of materials/BOM-rev5.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tim\Projects\HydroTek\bill of materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tim\Repos\HydroTek\bill of materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -62,9 +62,6 @@
     <t>IDC jumper shunts as reqd</t>
   </si>
   <si>
-    <t>Capacitor(s) if reqd</t>
-  </si>
-  <si>
     <t>rev5</t>
   </si>
   <si>
@@ -92,29 +89,26 @@
     <t>.22uF - .33uF ceramic disc or tantalum capacitor</t>
   </si>
   <si>
-    <t>100uF 16V low-ESR electrolytic capacitor</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Peripherals:</t>
-  </si>
-  <si>
     <t>3D printed case - rev5</t>
   </si>
   <si>
-    <t>IDC header pins 0.1" pitch (suggest: 14x long double-row and remove unused pins)</t>
-  </si>
-  <si>
     <t>IDC socket 0.1" pitch (4x pin long - for OLED to plug into)</t>
+  </si>
+  <si>
+    <t>50uF-100uF 16V+ low-ESR electrolytic capacitor</t>
+  </si>
+  <si>
+    <t>IDC header pins 0.1" pitch (qty as needed)</t>
+  </si>
+  <si>
+    <t>Peripherals: (qty as desired)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +124,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,9 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +445,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,12 +455,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -467,7 +476,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -475,7 +484,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -491,7 +500,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -499,7 +508,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -507,7 +516,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -515,18 +524,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,7 +540,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -547,7 +548,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -555,7 +556,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -571,10 +572,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,28 +582,28 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
+      <c r="A22" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -613,7 +611,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -621,15 +619,15 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>1</v>
